--- a/Question Sheet.xlsx
+++ b/Question Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sujal\Useful\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sujal\Programming\Babbar's 450 Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBFB03-2A07-4130-B76A-4873F9C62F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200DEFA-5ED4-446F-8DE8-1D1887182ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="465">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1410,37 +1411,22 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Reverse the array   (done)</t>
-  </si>
-  <si>
-    <t>Find the "Kth" max and min element of an array (done)</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array (done)</t>
-  </si>
-  <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo (done-brute)</t>
-  </si>
-  <si>
-    <t>Move all the negative elements to one side of the array (done)</t>
-  </si>
-  <si>
-    <t>Find the Union and Intersection of the two sorted arrays. (TLE)</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Partially</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Tle- partially</t>
-  </si>
-  <si>
-    <t>TLE- partially</t>
+    <t xml:space="preserve">Reverse the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays. </t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1905,9 +1891,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -1917,7 +1901,7 @@
         <v>459</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1925,10 +1909,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1936,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>467</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1950,7 +1934,7 @@
         <v>462</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1961,7 +1945,7 @@
         <v>463</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>467</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1972,7 +1956,7 @@
         <v>464</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1983,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1994,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2005,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2049,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2082,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>469</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2093,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2115,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2181,7 +2165,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2441,7 +2425,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2452,7 +2436,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -6947,9 +6931,9 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="Reverse the array" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array " xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{E5A98931-37E8-6B4A-90BE-8DC72405341A}"/>
     <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo" xr:uid="{02736918-E09F-7A46-90B3-AFCC33AA559B}"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array " xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{6E8DD30A-A9F9-4C44-B26C-C9E236F10798}"/>
     <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays." xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
     <hyperlink ref="B12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
     <hyperlink ref="B13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
